--- a/api/users.xlsx
+++ b/api/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sample-community-page\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6342BBC6-A62E-4843-8199-A5345262D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFE55D-7E94-4834-B680-8E56E5FC2EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9123DFBA-A790-4059-B8D4-22C3BCCFE79B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9123DFBA-A790-4059-B8D4-22C3BCCFE79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,16 +561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A69B3B-07FE-4CA8-BEB5-DB4827CE552F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="23.140625" customWidth="1"/>
+    <col min="1" max="6" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,7 +608,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,7 +626,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -698,7 +698,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -734,7 +734,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -752,7 +752,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -770,7 +770,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -806,7 +806,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -842,7 +842,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>

--- a/api/users.xlsx
+++ b/api/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sample-community-page\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFE55D-7E94-4834-B680-8E56E5FC2EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75912E6-977F-4C8E-AA1B-C72F5FF6E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9123DFBA-A790-4059-B8D4-22C3BCCFE79B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>interest</t>
-  </si>
-  <si>
-    <t>profile_pic</t>
   </si>
   <si>
     <t>Naruto Uzumaki</t>
@@ -559,18 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A69B3B-07FE-4CA8-BEB5-DB4827CE552F}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="23.109375" customWidth="1"/>
+    <col min="1" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,333 +583,312 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
